--- a/output/descriptive/d_DE_FSM.xlsx
+++ b/output/descriptive/d_DE_FSM.xlsx
@@ -362,7 +362,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>464</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3">
@@ -370,13 +370,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
